--- a/ExcelFiles/TrendLinesCaseStudyWWB.xlsx
+++ b/ExcelFiles/TrendLinesCaseStudyWWB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{F5FE07F3-E539-41BF-9293-7CEC0177739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BD59FAD-7C89-430A-BF48-5CD57E2EB69C}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{F5FE07F3-E539-41BF-9293-7CEC0177739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2082C7E4-C845-440F-8ACE-5753734BEA71}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,9 +309,6 @@
     <t>Name of Group Member 2:</t>
   </si>
   <si>
-    <t>Collect numerical data (at least 15 points), report your source(s), explain how you gathered the data, make a scatterplot, and fit an appropriate trend line to the data in order to make your informed decision. Be sure to state which trendline best fits your data using the box provided and record your equation for the trendline you selected.</t>
-  </si>
-  <si>
     <t>List your numerical data (at least 15 points)</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>Winter 2023</t>
+  </si>
+  <si>
+    <t>Collect numerical data (at least 15 points), report your source(s), explain how you gathered the data, make a scatterplot (complete with a main title and axis titles), and fit an appropriate trend line to the data in order to make your informed decision. Be sure to state which trendline best fits your data using the box provided and record your equation for the trendline you selected.</t>
   </si>
 </sst>
 </file>
@@ -1720,202 +1720,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1985,6 +1789,202 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2728,6 +2728,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3132,10 +3136,10 @@
     <row r="2" spans="1:150" s="29" customFormat="1" ht="54.95" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3241,12 +3245,12 @@
       <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="108" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="31"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
       <c r="K4" s="22"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="39"/>
@@ -3272,10 +3276,10 @@
     <row r="5" spans="1:150" ht="21.95" customHeight="1">
       <c r="A5" s="21"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="119"/>
+      <c r="D5" s="109"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
       <c r="K5" s="22"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
@@ -3300,18 +3304,18 @@
     <row r="6" spans="1:150" ht="21.95" customHeight="1">
       <c r="A6" s="21"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="119"/>
-      <c r="G6" s="127" t="s">
+      <c r="D6" s="109"/>
+      <c r="G6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
       <c r="K6" s="44"/>
       <c r="L6" s="45"/>
       <c r="M6" s="46"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
       <c r="Q6" s="47"/>
       <c r="S6" s="44"/>
       <c r="T6" s="45"/>
@@ -3320,16 +3324,16 @@
       <c r="AA6" s="44"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="46"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
       <c r="AG6" s="47"/>
       <c r="AI6" s="44"/>
       <c r="AJ6" s="45"/>
       <c r="AK6" s="46"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="117"/>
-      <c r="AN6" s="117"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
       <c r="AO6" s="47"/>
       <c r="AQ6" s="21"/>
       <c r="AY6" s="41"/>
@@ -3340,7 +3344,7 @@
     <row r="7" spans="1:150" ht="21" customHeight="1">
       <c r="A7" s="21"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="119"/>
+      <c r="D7" s="109"/>
       <c r="F7" s="5"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -3377,51 +3381,51 @@
     </row>
     <row r="8" spans="1:150" ht="46.5" customHeight="1">
       <c r="A8" s="21"/>
-      <c r="D8" s="120"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="54"/>
-      <c r="H8" s="90" t="s">
+      <c r="H8" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="91"/>
+      <c r="I8" s="154"/>
       <c r="J8" s="5"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="121" t="s">
+      <c r="L8" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="121"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="S8" s="95" t="s">
+      <c r="M8" s="111"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113"/>
+      <c r="S8" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
       <c r="W8" s="56"/>
       <c r="X8" s="56"/>
       <c r="Y8" s="53"/>
       <c r="AA8" s="55"/>
-      <c r="AB8" s="101" t="s">
+      <c r="AB8" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
       <c r="AI8" s="55"/>
-      <c r="AJ8" s="102" t="s">
-        <v>53</v>
+      <c r="AJ8" s="136" t="s">
+        <v>52</v>
       </c>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="102"/>
+      <c r="AK8" s="136"/>
+      <c r="AL8" s="136"/>
+      <c r="AM8" s="136"/>
+      <c r="AN8" s="136"/>
+      <c r="AO8" s="136"/>
       <c r="AQ8" s="21"/>
       <c r="AY8" s="41"/>
       <c r="BA8" s="24" t="s">
@@ -3438,16 +3442,16 @@
       <c r="I9" s="57"/>
       <c r="J9" s="3"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="124" t="s">
+      <c r="M9" s="114"/>
+      <c r="N9" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
       <c r="S9" s="59"/>
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
@@ -3455,20 +3459,20 @@
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
       <c r="Y9" s="53"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AJ9" s="103" t="s">
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AJ9" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="108"/>
-      <c r="AO9" s="109"/>
+      <c r="AK9" s="138"/>
+      <c r="AL9" s="141"/>
+      <c r="AM9" s="142"/>
+      <c r="AN9" s="142"/>
+      <c r="AO9" s="143"/>
       <c r="AQ9" s="21"/>
       <c r="AY9" s="41"/>
       <c r="BA9" s="24" t="s">
@@ -3484,46 +3488,46 @@
       <c r="C10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="127" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="61"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="130"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="3"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="123"/>
-      <c r="N10" s="124" t="s">
+      <c r="M10" s="115"/>
+      <c r="N10" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
       <c r="V10" s="59"/>
       <c r="W10" s="59"/>
       <c r="X10" s="59"/>
       <c r="Y10" s="62"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="101"/>
-      <c r="AG10" s="101"/>
-      <c r="AJ10" s="105" t="s">
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AJ10" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="112"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="144"/>
+      <c r="AM10" s="145"/>
+      <c r="AN10" s="145"/>
+      <c r="AO10" s="146"/>
       <c r="AQ10" s="21"/>
       <c r="AY10" s="41"/>
       <c r="BA10" s="24" t="s">
@@ -3537,7 +3541,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="135"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="61"/>
@@ -3545,30 +3549,30 @@
       <c r="I11" s="64"/>
       <c r="J11" s="3"/>
       <c r="K11" s="58"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="S11" s="96" t="s">
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="S11" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
       <c r="W11" s="59"/>
       <c r="X11" s="59"/>
       <c r="Y11" s="62"/>
-      <c r="AB11" s="133" t="str">
+      <c r="AB11" s="125" t="str">
         <f>S37</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="114" t="s">
-        <v>51</v>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="148" t="s">
+        <v>50</v>
       </c>
-      <c r="AE11" s="115"/>
+      <c r="AE11" s="149"/>
       <c r="AF11" s="85"/>
       <c r="AG11" s="64"/>
       <c r="AQ11" s="21"/>
@@ -3578,7 +3582,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="136"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="61"/>
@@ -3589,14 +3593,14 @@
         <f>IF(ISTEXT(#REF!),"4.","")</f>
         <v/>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
       <c r="S12" s="59"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
@@ -3604,22 +3608,22 @@
       <c r="W12" s="59"/>
       <c r="X12" s="59"/>
       <c r="Y12" s="62"/>
-      <c r="AB12" s="113" t="s">
-        <v>50</v>
+      <c r="AB12" s="147" t="s">
+        <v>49</v>
       </c>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="147"/>
       <c r="AF12" s="85"/>
       <c r="AG12" s="64"/>
-      <c r="AJ12" s="101" t="s">
+      <c r="AJ12" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="AK12" s="101"/>
-      <c r="AL12" s="101"/>
-      <c r="AM12" s="101"/>
-      <c r="AN12" s="101"/>
-      <c r="AO12" s="101"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="126"/>
+      <c r="AO12" s="126"/>
       <c r="AQ12" s="21"/>
       <c r="AY12" s="41"/>
     </row>
@@ -3635,12 +3639,12 @@
       <c r="K13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
       <c r="S13" s="59"/>
       <c r="T13" s="59"/>
       <c r="U13" s="59"/>
@@ -3654,23 +3658,23 @@
       <c r="AE13" s="64"/>
       <c r="AF13" s="64"/>
       <c r="AG13" s="64"/>
-      <c r="AJ13" s="101"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="101"/>
-      <c r="AM13" s="101"/>
-      <c r="AN13" s="101"/>
-      <c r="AO13" s="101"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="126"/>
+      <c r="AO13" s="126"/>
       <c r="AQ13" s="21"/>
       <c r="AY13" s="41"/>
     </row>
-    <row r="14" spans="1:150" ht="21" customHeight="1">
+    <row r="14" spans="1:150" ht="27.75" customHeight="1">
       <c r="A14" s="21"/>
       <c r="B14" s="3"/>
       <c r="C14" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="150" t="s">
-        <v>48</v>
+      <c r="D14" s="99" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3681,12 +3685,12 @@
       <c r="K14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
       <c r="V14" s="22"/>
       <c r="Y14" s="62"/>
       <c r="AB14" s="64"/>
@@ -3708,7 +3712,7 @@
       <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="68"/>
-      <c r="D15" s="151"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="65"/>
@@ -3718,25 +3722,25 @@
       <c r="K15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
       <c r="Y15" s="62"/>
-      <c r="AB15" s="101" t="s">
+      <c r="AB15" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="126"/>
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
@@ -3746,11 +3750,11 @@
       <c r="AQ15" s="21"/>
       <c r="AY15" s="41"/>
     </row>
-    <row r="16" spans="1:150" ht="30.75" customHeight="1">
+    <row r="16" spans="1:150" ht="33" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="3"/>
       <c r="C16" s="68"/>
-      <c r="D16" s="152"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="65"/>
@@ -3761,29 +3765,29 @@
         <f>IF(ISTEXT(L16),"4.","")</f>
         <v/>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="S16" s="138" t="s">
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="S16" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="99" t="s">
-        <v>49</v>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="134" t="s">
+        <v>48</v>
       </c>
-      <c r="X16" s="100"/>
+      <c r="X16" s="135"/>
       <c r="Y16" s="62"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
       <c r="AJ16" s="64"/>
       <c r="AK16" s="64"/>
       <c r="AL16" s="64"/>
@@ -3806,16 +3810,16 @@
         <f>IF(ISTEXT(L17),"5.","")</f>
         <v/>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
       <c r="W17" s="69" t="s">
         <v>15</v>
       </c>
@@ -3823,12 +3827,12 @@
         <v>16</v>
       </c>
       <c r="Y17" s="62"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="101"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="126"/>
       <c r="AI17" s="55"/>
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
@@ -3844,7 +3848,7 @@
       <c r="C18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="99" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3"/>
@@ -3857,16 +3861,16 @@
         <f>IF(ISTEXT(L18),"6.","")</f>
         <v/>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="141"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
       <c r="W18" s="83" t="str">
         <f>N9</f>
         <v xml:space="preserve"> </v>
@@ -3894,7 +3898,7 @@
       <c r="A19" s="21"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="151"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="71"/>
@@ -3905,16 +3909,16 @@
         <f>IF(ISTEXT(L19),"7.","")</f>
         <v/>
       </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
       <c r="W19" s="12"/>
       <c r="X19" s="13"/>
       <c r="AB19" s="64"/>
@@ -3935,7 +3939,7 @@
       <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="152"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="71"/>
@@ -3946,16 +3950,16 @@
         <f>IF(ISTEXT(L20),"8.","")</f>
         <v/>
       </c>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
       <c r="W20" s="8"/>
       <c r="X20" s="9"/>
       <c r="AJ20" s="64"/>
@@ -3979,16 +3983,16 @@
         <f>IF(ISTEXT(L21),"9.","")</f>
         <v/>
       </c>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
       <c r="W21" s="8"/>
       <c r="X21" s="9"/>
       <c r="AJ21" s="64"/>
@@ -4005,8 +4009,8 @@
       <c r="C22" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="150" t="s">
-        <v>52</v>
+      <c r="D22" s="99" t="s">
+        <v>51</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4018,16 +4022,16 @@
         <f>IF(ISTEXT(L22),"10.","")</f>
         <v/>
       </c>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
       <c r="W22" s="8"/>
       <c r="X22" s="9"/>
       <c r="AJ22" s="64"/>
@@ -4042,7 +4046,7 @@
       <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="151"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="71"/>
@@ -4056,10 +4060,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="S23" s="140"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9"/>
       <c r="AJ23" s="64"/>
@@ -4074,7 +4078,7 @@
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="151"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="71"/>
@@ -4084,10 +4088,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9"/>
       <c r="AJ24" s="64"/>
@@ -4102,7 +4106,7 @@
       <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="152"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="71"/>
@@ -4112,10 +4116,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9"/>
       <c r="AJ25" s="64"/>
@@ -4140,10 +4144,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
       <c r="W26" s="8"/>
       <c r="X26" s="9"/>
       <c r="AJ26" s="64"/>
@@ -4168,10 +4172,10 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
       <c r="W27" s="8"/>
       <c r="X27" s="9"/>
       <c r="AJ27" s="64"/>
@@ -4196,64 +4200,64 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
       <c r="W28" s="8"/>
       <c r="X28" s="9"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="98"/>
-      <c r="AM28" s="98"/>
-      <c r="AN28" s="98"/>
-      <c r="AO28" s="98"/>
+      <c r="AJ28" s="133"/>
+      <c r="AK28" s="133"/>
+      <c r="AL28" s="133"/>
+      <c r="AM28" s="133"/>
+      <c r="AN28" s="133"/>
+      <c r="AO28" s="133"/>
       <c r="AQ28" s="21"/>
     </row>
     <row r="29" spans="1:55" ht="21" customHeight="1">
       <c r="A29" s="21"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="137"/>
+      <c r="D29" s="86"/>
       <c r="F29" s="74"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
-      <c r="S29" s="140"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
       <c r="W29" s="8"/>
       <c r="X29" s="9"/>
-      <c r="AJ29" s="98"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="98"/>
-      <c r="AM29" s="98"/>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="98"/>
+      <c r="AJ29" s="133"/>
+      <c r="AK29" s="133"/>
+      <c r="AL29" s="133"/>
+      <c r="AM29" s="133"/>
+      <c r="AN29" s="133"/>
+      <c r="AO29" s="133"/>
       <c r="AQ29" s="21"/>
     </row>
     <row r="30" spans="1:55" ht="21" customHeight="1">
       <c r="A30" s="21"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="137"/>
+      <c r="D30" s="86"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
       <c r="M30" s="75"/>
-      <c r="S30" s="140"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="141"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
       <c r="W30" s="8"/>
       <c r="X30" s="9"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="98"/>
-      <c r="AN30" s="98"/>
-      <c r="AO30" s="98"/>
+      <c r="AJ30" s="133"/>
+      <c r="AK30" s="133"/>
+      <c r="AL30" s="133"/>
+      <c r="AM30" s="133"/>
+      <c r="AN30" s="133"/>
+      <c r="AO30" s="133"/>
       <c r="AQ30" s="21"/>
       <c r="BA30" s="76"/>
       <c r="BB30" s="77"/>
@@ -4262,15 +4266,15 @@
     <row r="31" spans="1:55" ht="21" customHeight="1" thickBot="1">
       <c r="A31" s="21"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="137"/>
+      <c r="D31" s="86"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
       <c r="M31" s="75"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="143"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
       <c r="W31" s="8"/>
       <c r="X31" s="9"/>
       <c r="AK31" s="75"/>
@@ -4284,7 +4288,7 @@
     </row>
     <row r="32" spans="1:55" ht="21" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="D32" s="137"/>
+      <c r="D32" s="86"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
       <c r="I32" s="71"/>
@@ -4306,7 +4310,7 @@
       <c r="A33" s="21"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="137"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="71"/>
@@ -4314,11 +4318,11 @@
       <c r="I33" s="71"/>
       <c r="J33" s="3"/>
       <c r="M33" s="75"/>
-      <c r="S33" s="153" t="s">
+      <c r="S33" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="154"/>
-      <c r="U33" s="155"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="104"/>
       <c r="V33" s="78"/>
       <c r="W33" s="14"/>
       <c r="X33" s="15"/>
@@ -4334,7 +4338,7 @@
       <c r="A34" s="21"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="137"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="71"/>
@@ -4342,9 +4346,9 @@
       <c r="I34" s="71"/>
       <c r="J34" s="3"/>
       <c r="M34" s="75"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="149"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="98"/>
       <c r="V34" s="78" t="s">
         <v>25</v>
       </c>
@@ -4359,7 +4363,7 @@
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="137"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="71"/>
@@ -4388,7 +4392,7 @@
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="137"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="71"/>
@@ -4396,11 +4400,11 @@
       <c r="I36" s="71"/>
       <c r="J36" s="3"/>
       <c r="M36" s="75"/>
-      <c r="S36" s="153" t="s">
+      <c r="S36" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="T36" s="154"/>
-      <c r="U36" s="155"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="104"/>
       <c r="V36" s="78"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9"/>
@@ -4425,11 +4429,11 @@
       <c r="I37" s="71"/>
       <c r="J37" s="3"/>
       <c r="M37" s="75"/>
-      <c r="S37" s="144" t="s">
+      <c r="S37" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="T37" s="145"/>
-      <c r="U37" s="146"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="95"/>
       <c r="V37" s="78"/>
       <c r="W37" s="8"/>
       <c r="X37" s="9"/>
@@ -4471,7 +4475,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="137"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="71"/>
@@ -4500,7 +4504,7 @@
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="137"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="71"/>
@@ -4538,7 +4542,7 @@
       <c r="A41" s="21"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="137"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="71"/>
@@ -4573,7 +4577,7 @@
       <c r="A42" s="21"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="137"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="71"/>
@@ -4608,7 +4612,7 @@
       <c r="A43" s="21"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="137"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="71"/>
@@ -4640,7 +4644,7 @@
       <c r="A44" s="21"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="137"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="71"/>
@@ -4672,7 +4676,7 @@
       <c r="A45" s="21"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="137"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="71"/>
@@ -4704,7 +4708,7 @@
       <c r="A46" s="21"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="137"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="71"/>
@@ -6207,7 +6211,7 @@
       <c r="X100" s="18"/>
       <c r="Y100" s="19"/>
       <c r="Z100" s="81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA100" s="24" t="s">
         <v>30</v>
@@ -16553,21 +16557,37 @@
       <c r="ET568" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BuOybHUExP9sir28bQXnis7lEYpA9g6vUoBMFZCEtR+43FUEgRLSw1uWjn9LlO1BUHMoiO0mNBW2df0HwxW4ZQ==" saltValue="btYMDYTE/U3s7P+c6Khe/A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="unsg23OBX3XkfFZSVqUcW+Ka6KbnK7KoWUjg60eL0QSUgax5Q807Z1822epVcen/P7p5gj3WKXlFQn7ZMijILw==" saltValue="5xiMLGTI/ezmllZNzoFNog==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BA5:BA10">
     <sortCondition ref="BA5"/>
   </sortState>
   <mergeCells count="52">
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="S16:V31"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="AJ28:AO30"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="AB8:AG10"/>
+    <mergeCell ref="AJ12:AO13"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="AL6:AN6"/>
     <mergeCell ref="AD6:AF6"/>
     <mergeCell ref="N6:P6"/>
@@ -16584,32 +16604,16 @@
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AB15:AG17"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="AJ28:AO30"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="AB8:AG10"/>
-    <mergeCell ref="AJ12:AO13"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="S16:V31"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="S33:U33"/>
   </mergeCells>
   <conditionalFormatting sqref="AL9">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Hover here">

--- a/ExcelFiles/TrendLinesCaseStudyWWB.xlsx
+++ b/ExcelFiles/TrendLinesCaseStudyWWB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{F5FE07F3-E539-41BF-9293-7CEC0177739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2082C7E4-C845-440F-8ACE-5753734BEA71}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{F5FE07F3-E539-41BF-9293-7CEC0177739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204088DA-1CBF-425A-B357-780B212CD7EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,10 +324,10 @@
     <t>Show your project to two people (either group members on the discussion board, online tutors, family members, friends, or the instructor). Get feedback from them. Improve accordingly.</t>
   </si>
   <si>
-    <t>Winter 2023</t>
+    <t>Collect numerical data (at least 15 points), report your source(s), explain how you gathered the data, make a scatterplot (complete with a main title and axis titles), and fit an appropriate trend line to the data in order to make your informed decision. Be sure to state which trendline best fits your data using the box provided and record your equation for the trendline you selected.</t>
   </si>
   <si>
-    <t>Collect numerical data (at least 15 points), report your source(s), explain how you gathered the data, make a scatterplot (complete with a main title and axis titles), and fit an appropriate trend line to the data in order to make your informed decision. Be sure to state which trendline best fits your data using the box provided and record your equation for the trendline you selected.</t>
+    <t>Spring 2023</t>
   </si>
 </sst>
 </file>
@@ -1720,6 +1720,202 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1789,202 +1985,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3136,10 +3136,10 @@
     <row r="2" spans="1:150" s="29" customFormat="1" ht="54.95" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="150"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3245,12 +3245,12 @@
       <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="118" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="31"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="132"/>
       <c r="K4" s="22"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="39"/>
@@ -3276,10 +3276,10 @@
     <row r="5" spans="1:150" ht="21.95" customHeight="1">
       <c r="A5" s="21"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="109"/>
+      <c r="D5" s="119"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="132"/>
       <c r="K5" s="22"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
@@ -3304,18 +3304,18 @@
     <row r="6" spans="1:150" ht="21.95" customHeight="1">
       <c r="A6" s="21"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="109"/>
-      <c r="G6" s="119" t="s">
+      <c r="D6" s="119"/>
+      <c r="G6" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
       <c r="K6" s="44"/>
       <c r="L6" s="45"/>
       <c r="M6" s="46"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
       <c r="Q6" s="47"/>
       <c r="S6" s="44"/>
       <c r="T6" s="45"/>
@@ -3324,16 +3324,16 @@
       <c r="AA6" s="44"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="46"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
       <c r="AG6" s="47"/>
       <c r="AI6" s="44"/>
       <c r="AJ6" s="45"/>
       <c r="AK6" s="46"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="117"/>
+      <c r="AN6" s="117"/>
       <c r="AO6" s="47"/>
       <c r="AQ6" s="21"/>
       <c r="AY6" s="41"/>
@@ -3344,7 +3344,7 @@
     <row r="7" spans="1:150" ht="21" customHeight="1">
       <c r="A7" s="21"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="109"/>
+      <c r="D7" s="119"/>
       <c r="F7" s="5"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -3381,51 +3381,51 @@
     </row>
     <row r="8" spans="1:150" ht="46.5" customHeight="1">
       <c r="A8" s="21"/>
-      <c r="D8" s="110"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="54"/>
-      <c r="H8" s="153" t="s">
+      <c r="H8" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="154"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="5"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="111" t="s">
+      <c r="L8" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113"/>
-      <c r="S8" s="130" t="s">
+      <c r="M8" s="121"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="94"/>
+      <c r="S8" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="56"/>
       <c r="X8" s="56"/>
       <c r="Y8" s="53"/>
       <c r="AA8" s="55"/>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
       <c r="AI8" s="55"/>
-      <c r="AJ8" s="136" t="s">
+      <c r="AJ8" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AK8" s="136"/>
-      <c r="AL8" s="136"/>
-      <c r="AM8" s="136"/>
-      <c r="AN8" s="136"/>
-      <c r="AO8" s="136"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="102"/>
       <c r="AQ8" s="21"/>
       <c r="AY8" s="41"/>
       <c r="BA8" s="24" t="s">
@@ -3442,16 +3442,16 @@
       <c r="I9" s="57"/>
       <c r="J9" s="3"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="114" t="s">
+      <c r="L9" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="114"/>
-      <c r="N9" s="116" t="s">
+      <c r="M9" s="122"/>
+      <c r="N9" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="126"/>
       <c r="S9" s="59"/>
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
@@ -3459,20 +3459,20 @@
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
       <c r="Y9" s="53"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AJ9" s="137" t="s">
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AJ9" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="138"/>
-      <c r="AL9" s="141"/>
-      <c r="AM9" s="142"/>
-      <c r="AN9" s="142"/>
-      <c r="AO9" s="143"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="108"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="109"/>
       <c r="AQ9" s="21"/>
       <c r="AY9" s="41"/>
       <c r="BA9" s="24" t="s">
@@ -3488,46 +3488,46 @@
       <c r="C10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="134" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="61"/>
-      <c r="H10" s="122" t="s">
+      <c r="H10" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="122"/>
+      <c r="I10" s="130"/>
       <c r="J10" s="3"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="115" t="s">
+      <c r="L10" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116" t="s">
+      <c r="M10" s="123"/>
+      <c r="N10" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="126"/>
       <c r="V10" s="59"/>
       <c r="W10" s="59"/>
       <c r="X10" s="59"/>
       <c r="Y10" s="62"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AJ10" s="139" t="s">
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AJ10" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="140"/>
-      <c r="AL10" s="144"/>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="146"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="112"/>
       <c r="AQ10" s="21"/>
       <c r="AY10" s="41"/>
       <c r="BA10" s="24" t="s">
@@ -3541,7 +3541,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="128"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="61"/>
@@ -3549,30 +3549,30 @@
       <c r="I11" s="64"/>
       <c r="J11" s="3"/>
       <c r="K11" s="58"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="S11" s="131" t="s">
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="S11" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="59"/>
       <c r="X11" s="59"/>
       <c r="Y11" s="62"/>
-      <c r="AB11" s="125" t="str">
+      <c r="AB11" s="133" t="str">
         <f>S37</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="148" t="s">
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="149"/>
+      <c r="AE11" s="115"/>
       <c r="AF11" s="85"/>
       <c r="AG11" s="64"/>
       <c r="AQ11" s="21"/>
@@ -3582,7 +3582,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="129"/>
+      <c r="D12" s="136"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="61"/>
@@ -3593,14 +3593,14 @@
         <f>IF(ISTEXT(#REF!),"4.","")</f>
         <v/>
       </c>
-      <c r="L12" s="112" t="s">
+      <c r="L12" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="113"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
       <c r="S12" s="59"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
@@ -3608,22 +3608,22 @@
       <c r="W12" s="59"/>
       <c r="X12" s="59"/>
       <c r="Y12" s="62"/>
-      <c r="AB12" s="147" t="s">
+      <c r="AB12" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="147"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
       <c r="AF12" s="85"/>
       <c r="AG12" s="64"/>
-      <c r="AJ12" s="126" t="s">
+      <c r="AJ12" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="AK12" s="126"/>
-      <c r="AL12" s="126"/>
-      <c r="AM12" s="126"/>
-      <c r="AN12" s="126"/>
-      <c r="AO12" s="126"/>
+      <c r="AK12" s="101"/>
+      <c r="AL12" s="101"/>
+      <c r="AM12" s="101"/>
+      <c r="AN12" s="101"/>
+      <c r="AO12" s="101"/>
       <c r="AQ12" s="21"/>
       <c r="AY12" s="41"/>
     </row>
@@ -3639,12 +3639,12 @@
       <c r="K13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
       <c r="S13" s="59"/>
       <c r="T13" s="59"/>
       <c r="U13" s="59"/>
@@ -3658,12 +3658,12 @@
       <c r="AE13" s="64"/>
       <c r="AF13" s="64"/>
       <c r="AG13" s="64"/>
-      <c r="AJ13" s="126"/>
-      <c r="AK13" s="126"/>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="126"/>
-      <c r="AO13" s="126"/>
+      <c r="AJ13" s="101"/>
+      <c r="AK13" s="101"/>
+      <c r="AL13" s="101"/>
+      <c r="AM13" s="101"/>
+      <c r="AN13" s="101"/>
+      <c r="AO13" s="101"/>
       <c r="AQ13" s="21"/>
       <c r="AY13" s="41"/>
     </row>
@@ -3673,8 +3673,8 @@
       <c r="C14" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="99" t="s">
-        <v>54</v>
+      <c r="D14" s="150" t="s">
+        <v>53</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3685,12 +3685,12 @@
       <c r="K14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
       <c r="V14" s="22"/>
       <c r="Y14" s="62"/>
       <c r="AB14" s="64"/>
@@ -3712,7 +3712,7 @@
       <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="68"/>
-      <c r="D15" s="100"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="65"/>
@@ -3722,25 +3722,25 @@
       <c r="K15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
       <c r="Y15" s="62"/>
-      <c r="AB15" s="126" t="s">
+      <c r="AB15" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="126"/>
-      <c r="AF15" s="126"/>
-      <c r="AG15" s="126"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
@@ -3754,7 +3754,7 @@
       <c r="A16" s="21"/>
       <c r="B16" s="3"/>
       <c r="C16" s="68"/>
-      <c r="D16" s="101"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="65"/>
@@ -3765,29 +3765,29 @@
         <f>IF(ISTEXT(L16),"4.","")</f>
         <v/>
       </c>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="S16" s="87" t="s">
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="S16" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="134" t="s">
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="X16" s="135"/>
+      <c r="X16" s="100"/>
       <c r="Y16" s="62"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="126"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
       <c r="AJ16" s="64"/>
       <c r="AK16" s="64"/>
       <c r="AL16" s="64"/>
@@ -3810,16 +3810,16 @@
         <f>IF(ISTEXT(L17),"5.","")</f>
         <v/>
       </c>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="141"/>
       <c r="W17" s="69" t="s">
         <v>15</v>
       </c>
@@ -3827,12 +3827,12 @@
         <v>16</v>
       </c>
       <c r="Y17" s="62"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="126"/>
-      <c r="AF17" s="126"/>
-      <c r="AG17" s="126"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
       <c r="AI17" s="55"/>
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
@@ -3848,7 +3848,7 @@
       <c r="C18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="150" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3"/>
@@ -3861,16 +3861,16 @@
         <f>IF(ISTEXT(L18),"6.","")</f>
         <v/>
       </c>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="141"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
       <c r="W18" s="83" t="str">
         <f>N9</f>
         <v xml:space="preserve"> </v>
@@ -3898,7 +3898,7 @@
       <c r="A19" s="21"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="100"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="71"/>
@@ -3909,16 +3909,16 @@
         <f>IF(ISTEXT(L19),"7.","")</f>
         <v/>
       </c>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="141"/>
       <c r="W19" s="12"/>
       <c r="X19" s="13"/>
       <c r="AB19" s="64"/>
@@ -3939,7 +3939,7 @@
       <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="101"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="71"/>
@@ -3950,16 +3950,16 @@
         <f>IF(ISTEXT(L20),"8.","")</f>
         <v/>
       </c>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="141"/>
       <c r="W20" s="8"/>
       <c r="X20" s="9"/>
       <c r="AJ20" s="64"/>
@@ -3983,16 +3983,16 @@
         <f>IF(ISTEXT(L21),"9.","")</f>
         <v/>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
       <c r="W21" s="8"/>
       <c r="X21" s="9"/>
       <c r="AJ21" s="64"/>
@@ -4009,7 +4009,7 @@
       <c r="C22" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="150" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="3"/>
@@ -4022,16 +4022,16 @@
         <f>IF(ISTEXT(L22),"10.","")</f>
         <v/>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="141"/>
       <c r="W22" s="8"/>
       <c r="X22" s="9"/>
       <c r="AJ22" s="64"/>
@@ -4046,7 +4046,7 @@
       <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="100"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="71"/>
@@ -4060,10 +4060,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9"/>
       <c r="AJ23" s="64"/>
@@ -4078,7 +4078,7 @@
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="100"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="71"/>
@@ -4088,10 +4088,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="141"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9"/>
       <c r="AJ24" s="64"/>
@@ -4106,7 +4106,7 @@
       <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="101"/>
+      <c r="D25" s="152"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="71"/>
@@ -4116,10 +4116,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9"/>
       <c r="AJ25" s="64"/>
@@ -4144,10 +4144,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
       <c r="W26" s="8"/>
       <c r="X26" s="9"/>
       <c r="AJ26" s="64"/>
@@ -4172,10 +4172,10 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
       <c r="W27" s="8"/>
       <c r="X27" s="9"/>
       <c r="AJ27" s="64"/>
@@ -4200,64 +4200,64 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
       <c r="W28" s="8"/>
       <c r="X28" s="9"/>
-      <c r="AJ28" s="133"/>
-      <c r="AK28" s="133"/>
-      <c r="AL28" s="133"/>
-      <c r="AM28" s="133"/>
-      <c r="AN28" s="133"/>
-      <c r="AO28" s="133"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
       <c r="AQ28" s="21"/>
     </row>
     <row r="29" spans="1:55" ht="21" customHeight="1">
       <c r="A29" s="21"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="86"/>
+      <c r="D29" s="137"/>
       <c r="F29" s="74"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
+      <c r="S29" s="140"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
       <c r="W29" s="8"/>
       <c r="X29" s="9"/>
-      <c r="AJ29" s="133"/>
-      <c r="AK29" s="133"/>
-      <c r="AL29" s="133"/>
-      <c r="AM29" s="133"/>
-      <c r="AN29" s="133"/>
-      <c r="AO29" s="133"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
       <c r="AQ29" s="21"/>
     </row>
     <row r="30" spans="1:55" ht="21" customHeight="1">
       <c r="A30" s="21"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="137"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
       <c r="M30" s="75"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
+      <c r="S30" s="140"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="141"/>
       <c r="W30" s="8"/>
       <c r="X30" s="9"/>
-      <c r="AJ30" s="133"/>
-      <c r="AK30" s="133"/>
-      <c r="AL30" s="133"/>
-      <c r="AM30" s="133"/>
-      <c r="AN30" s="133"/>
-      <c r="AO30" s="133"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
       <c r="AQ30" s="21"/>
       <c r="BA30" s="76"/>
       <c r="BB30" s="77"/>
@@ -4266,15 +4266,15 @@
     <row r="31" spans="1:55" ht="21" customHeight="1" thickBot="1">
       <c r="A31" s="21"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="86"/>
+      <c r="D31" s="137"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
       <c r="M31" s="75"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
+      <c r="S31" s="142"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="143"/>
       <c r="W31" s="8"/>
       <c r="X31" s="9"/>
       <c r="AK31" s="75"/>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="32" spans="1:55" ht="21" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="D32" s="86"/>
+      <c r="D32" s="137"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
       <c r="I32" s="71"/>
@@ -4310,7 +4310,7 @@
       <c r="A33" s="21"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="86"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="71"/>
@@ -4318,11 +4318,11 @@
       <c r="I33" s="71"/>
       <c r="J33" s="3"/>
       <c r="M33" s="75"/>
-      <c r="S33" s="102" t="s">
+      <c r="S33" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="103"/>
-      <c r="U33" s="104"/>
+      <c r="T33" s="154"/>
+      <c r="U33" s="155"/>
       <c r="V33" s="78"/>
       <c r="W33" s="14"/>
       <c r="X33" s="15"/>
@@ -4338,7 +4338,7 @@
       <c r="A34" s="21"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="86"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="71"/>
@@ -4346,9 +4346,9 @@
       <c r="I34" s="71"/>
       <c r="J34" s="3"/>
       <c r="M34" s="75"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="98"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="149"/>
       <c r="V34" s="78" t="s">
         <v>25</v>
       </c>
@@ -4363,7 +4363,7 @@
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="86"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="71"/>
@@ -4392,7 +4392,7 @@
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="86"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="71"/>
@@ -4400,11 +4400,11 @@
       <c r="I36" s="71"/>
       <c r="J36" s="3"/>
       <c r="M36" s="75"/>
-      <c r="S36" s="102" t="s">
+      <c r="S36" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="T36" s="103"/>
-      <c r="U36" s="104"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="155"/>
       <c r="V36" s="78"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9"/>
@@ -4429,11 +4429,11 @@
       <c r="I37" s="71"/>
       <c r="J37" s="3"/>
       <c r="M37" s="75"/>
-      <c r="S37" s="93" t="s">
+      <c r="S37" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="T37" s="94"/>
-      <c r="U37" s="95"/>
+      <c r="T37" s="145"/>
+      <c r="U37" s="146"/>
       <c r="V37" s="78"/>
       <c r="W37" s="8"/>
       <c r="X37" s="9"/>
@@ -4475,7 +4475,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="86"/>
+      <c r="D39" s="137"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="71"/>
@@ -4504,7 +4504,7 @@
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="86"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="71"/>
@@ -4542,7 +4542,7 @@
       <c r="A41" s="21"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="86"/>
+      <c r="D41" s="137"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="71"/>
@@ -4577,7 +4577,7 @@
       <c r="A42" s="21"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="86"/>
+      <c r="D42" s="137"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="71"/>
@@ -4612,7 +4612,7 @@
       <c r="A43" s="21"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="86"/>
+      <c r="D43" s="137"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="71"/>
@@ -4644,7 +4644,7 @@
       <c r="A44" s="21"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="86"/>
+      <c r="D44" s="137"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="71"/>
@@ -4676,7 +4676,7 @@
       <c r="A45" s="21"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="86"/>
+      <c r="D45" s="137"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="71"/>
@@ -4708,7 +4708,7 @@
       <c r="A46" s="21"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="86"/>
+      <c r="D46" s="137"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="71"/>
@@ -6211,7 +6211,7 @@
       <c r="X100" s="18"/>
       <c r="Y100" s="19"/>
       <c r="Z100" s="81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA100" s="24" t="s">
         <v>30</v>
@@ -16562,32 +16562,16 @@
     <sortCondition ref="BA5"/>
   </sortState>
   <mergeCells count="52">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="AJ28:AO30"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="AB8:AG10"/>
-    <mergeCell ref="AJ12:AO13"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="S16:V31"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="S33:U33"/>
     <mergeCell ref="AL6:AN6"/>
     <mergeCell ref="AD6:AF6"/>
     <mergeCell ref="N6:P6"/>
@@ -16604,16 +16588,32 @@
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AB15:AG17"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="S16:V31"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="AJ28:AO30"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="AB8:AG10"/>
+    <mergeCell ref="AJ12:AO13"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
   </mergeCells>
   <conditionalFormatting sqref="AL9">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Hover here">

--- a/ExcelFiles/TrendLinesCaseStudyWWB.xlsx
+++ b/ExcelFiles/TrendLinesCaseStudyWWB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/curtisgn_byui_edu/Documents/Course Lead/108/Math108XWebsite/math108x/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{F5FE07F3-E539-41BF-9293-7CEC0177739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204088DA-1CBF-425A-B357-780B212CD7EA}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{F5FE07F3-E539-41BF-9293-7CEC0177739C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121B30A7-4588-4318-B505-B5E47350B49C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,7 +327,7 @@
     <t>Collect numerical data (at least 15 points), report your source(s), explain how you gathered the data, make a scatterplot (complete with a main title and axis titles), and fit an appropriate trend line to the data in order to make your informed decision. Be sure to state which trendline best fits your data using the box provided and record your equation for the trendline you selected.</t>
   </si>
   <si>
-    <t>Spring 2023</t>
+    <t>Fall 2023</t>
   </si>
 </sst>
 </file>
@@ -1720,202 +1720,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1985,6 +1789,202 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2728,10 +2728,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3136,10 +3132,10 @@
     <row r="2" spans="1:150" s="29" customFormat="1" ht="54.95" customHeight="1">
       <c r="A2" s="21"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -3245,12 +3241,12 @@
       <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="108" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="31"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
       <c r="K4" s="22"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="39"/>
@@ -3276,10 +3272,10 @@
     <row r="5" spans="1:150" ht="21.95" customHeight="1">
       <c r="A5" s="21"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="119"/>
+      <c r="D5" s="109"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="124"/>
       <c r="K5" s="22"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
@@ -3304,18 +3300,18 @@
     <row r="6" spans="1:150" ht="21.95" customHeight="1">
       <c r="A6" s="21"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="119"/>
-      <c r="G6" s="127" t="s">
+      <c r="D6" s="109"/>
+      <c r="G6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
       <c r="K6" s="44"/>
       <c r="L6" s="45"/>
       <c r="M6" s="46"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
       <c r="Q6" s="47"/>
       <c r="S6" s="44"/>
       <c r="T6" s="45"/>
@@ -3324,16 +3320,16 @@
       <c r="AA6" s="44"/>
       <c r="AB6" s="45"/>
       <c r="AC6" s="46"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
       <c r="AG6" s="47"/>
       <c r="AI6" s="44"/>
       <c r="AJ6" s="45"/>
       <c r="AK6" s="46"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="117"/>
-      <c r="AN6" s="117"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
       <c r="AO6" s="47"/>
       <c r="AQ6" s="21"/>
       <c r="AY6" s="41"/>
@@ -3344,7 +3340,7 @@
     <row r="7" spans="1:150" ht="21" customHeight="1">
       <c r="A7" s="21"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="119"/>
+      <c r="D7" s="109"/>
       <c r="F7" s="5"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -3381,51 +3377,51 @@
     </row>
     <row r="8" spans="1:150" ht="46.5" customHeight="1">
       <c r="A8" s="21"/>
-      <c r="D8" s="120"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="54"/>
-      <c r="H8" s="90" t="s">
+      <c r="H8" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="91"/>
+      <c r="I8" s="154"/>
       <c r="J8" s="5"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="121" t="s">
+      <c r="L8" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="121"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="S8" s="95" t="s">
+      <c r="M8" s="111"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113"/>
+      <c r="S8" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
       <c r="W8" s="56"/>
       <c r="X8" s="56"/>
       <c r="Y8" s="53"/>
       <c r="AA8" s="55"/>
-      <c r="AB8" s="101" t="s">
+      <c r="AB8" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
       <c r="AI8" s="55"/>
-      <c r="AJ8" s="102" t="s">
+      <c r="AJ8" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="102"/>
+      <c r="AK8" s="136"/>
+      <c r="AL8" s="136"/>
+      <c r="AM8" s="136"/>
+      <c r="AN8" s="136"/>
+      <c r="AO8" s="136"/>
       <c r="AQ8" s="21"/>
       <c r="AY8" s="41"/>
       <c r="BA8" s="24" t="s">
@@ -3442,16 +3438,16 @@
       <c r="I9" s="57"/>
       <c r="J9" s="3"/>
       <c r="K9" s="58"/>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="124" t="s">
+      <c r="M9" s="114"/>
+      <c r="N9" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="126"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
       <c r="S9" s="59"/>
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
@@ -3459,20 +3455,20 @@
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
       <c r="Y9" s="53"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AJ9" s="103" t="s">
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AJ9" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="108"/>
-      <c r="AO9" s="109"/>
+      <c r="AK9" s="138"/>
+      <c r="AL9" s="141"/>
+      <c r="AM9" s="142"/>
+      <c r="AN9" s="142"/>
+      <c r="AO9" s="143"/>
       <c r="AQ9" s="21"/>
       <c r="AY9" s="41"/>
       <c r="BA9" s="24" t="s">
@@ -3488,46 +3484,46 @@
       <c r="C10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="127" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="61"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="130"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="3"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="123"/>
-      <c r="N10" s="124" t="s">
+      <c r="M10" s="115"/>
+      <c r="N10" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="126"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
       <c r="V10" s="59"/>
       <c r="W10" s="59"/>
       <c r="X10" s="59"/>
       <c r="Y10" s="62"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="101"/>
-      <c r="AG10" s="101"/>
-      <c r="AJ10" s="105" t="s">
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AJ10" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="112"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="144"/>
+      <c r="AM10" s="145"/>
+      <c r="AN10" s="145"/>
+      <c r="AO10" s="146"/>
       <c r="AQ10" s="21"/>
       <c r="AY10" s="41"/>
       <c r="BA10" s="24" t="s">
@@ -3541,7 +3537,7 @@
       <c r="A11" s="21"/>
       <c r="B11" s="3"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="135"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="61"/>
@@ -3549,30 +3545,30 @@
       <c r="I11" s="64"/>
       <c r="J11" s="3"/>
       <c r="K11" s="58"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="S11" s="96" t="s">
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="S11" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
       <c r="W11" s="59"/>
       <c r="X11" s="59"/>
       <c r="Y11" s="62"/>
-      <c r="AB11" s="133" t="str">
+      <c r="AB11" s="125" t="str">
         <f>S37</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="114" t="s">
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="115"/>
+      <c r="AE11" s="149"/>
       <c r="AF11" s="85"/>
       <c r="AG11" s="64"/>
       <c r="AQ11" s="21"/>
@@ -3582,7 +3578,7 @@
       <c r="A12" s="21"/>
       <c r="B12" s="3"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="136"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="61"/>
@@ -3593,14 +3589,14 @@
         <f>IF(ISTEXT(#REF!),"4.","")</f>
         <v/>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
       <c r="S12" s="59"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
@@ -3608,22 +3604,22 @@
       <c r="W12" s="59"/>
       <c r="X12" s="59"/>
       <c r="Y12" s="62"/>
-      <c r="AB12" s="113" t="s">
+      <c r="AB12" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="147"/>
       <c r="AF12" s="85"/>
       <c r="AG12" s="64"/>
-      <c r="AJ12" s="101" t="s">
+      <c r="AJ12" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="AK12" s="101"/>
-      <c r="AL12" s="101"/>
-      <c r="AM12" s="101"/>
-      <c r="AN12" s="101"/>
-      <c r="AO12" s="101"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="126"/>
+      <c r="AO12" s="126"/>
       <c r="AQ12" s="21"/>
       <c r="AY12" s="41"/>
     </row>
@@ -3639,12 +3635,12 @@
       <c r="K13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
       <c r="S13" s="59"/>
       <c r="T13" s="59"/>
       <c r="U13" s="59"/>
@@ -3658,12 +3654,12 @@
       <c r="AE13" s="64"/>
       <c r="AF13" s="64"/>
       <c r="AG13" s="64"/>
-      <c r="AJ13" s="101"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="101"/>
-      <c r="AM13" s="101"/>
-      <c r="AN13" s="101"/>
-      <c r="AO13" s="101"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="126"/>
+      <c r="AO13" s="126"/>
       <c r="AQ13" s="21"/>
       <c r="AY13" s="41"/>
     </row>
@@ -3673,7 +3669,7 @@
       <c r="C14" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="99" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="3"/>
@@ -3685,12 +3681,12 @@
       <c r="K14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
       <c r="V14" s="22"/>
       <c r="Y14" s="62"/>
       <c r="AB14" s="64"/>
@@ -3712,7 +3708,7 @@
       <c r="A15" s="21"/>
       <c r="B15" s="3"/>
       <c r="C15" s="68"/>
-      <c r="D15" s="151"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="65"/>
@@ -3722,25 +3718,25 @@
       <c r="K15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
       <c r="Y15" s="62"/>
-      <c r="AB15" s="101" t="s">
+      <c r="AB15" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="126"/>
+      <c r="AG15" s="126"/>
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
@@ -3754,7 +3750,7 @@
       <c r="A16" s="21"/>
       <c r="B16" s="3"/>
       <c r="C16" s="68"/>
-      <c r="D16" s="152"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="65"/>
@@ -3765,29 +3761,29 @@
         <f>IF(ISTEXT(L16),"4.","")</f>
         <v/>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="S16" s="138" t="s">
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="S16" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="139"/>
-      <c r="U16" s="139"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="99" t="s">
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="X16" s="100"/>
+      <c r="X16" s="135"/>
       <c r="Y16" s="62"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
       <c r="AJ16" s="64"/>
       <c r="AK16" s="64"/>
       <c r="AL16" s="64"/>
@@ -3810,16 +3806,16 @@
         <f>IF(ISTEXT(L17),"5.","")</f>
         <v/>
       </c>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
       <c r="W17" s="69" t="s">
         <v>15</v>
       </c>
@@ -3827,12 +3823,12 @@
         <v>16</v>
       </c>
       <c r="Y17" s="62"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="101"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="126"/>
       <c r="AI17" s="55"/>
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
@@ -3848,7 +3844,7 @@
       <c r="C18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="99" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3"/>
@@ -3861,16 +3857,16 @@
         <f>IF(ISTEXT(L18),"6.","")</f>
         <v/>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="141"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
       <c r="W18" s="83" t="str">
         <f>N9</f>
         <v xml:space="preserve"> </v>
@@ -3898,7 +3894,7 @@
       <c r="A19" s="21"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="151"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="71"/>
@@ -3909,16 +3905,16 @@
         <f>IF(ISTEXT(L19),"7.","")</f>
         <v/>
       </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
       <c r="W19" s="12"/>
       <c r="X19" s="13"/>
       <c r="AB19" s="64"/>
@@ -3939,7 +3935,7 @@
       <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="152"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="71"/>
@@ -3950,16 +3946,16 @@
         <f>IF(ISTEXT(L20),"8.","")</f>
         <v/>
       </c>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
       <c r="W20" s="8"/>
       <c r="X20" s="9"/>
       <c r="AJ20" s="64"/>
@@ -3983,16 +3979,16 @@
         <f>IF(ISTEXT(L21),"9.","")</f>
         <v/>
       </c>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
       <c r="W21" s="8"/>
       <c r="X21" s="9"/>
       <c r="AJ21" s="64"/>
@@ -4009,7 +4005,7 @@
       <c r="C22" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="99" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="3"/>
@@ -4022,16 +4018,16 @@
         <f>IF(ISTEXT(L22),"10.","")</f>
         <v/>
       </c>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
       <c r="W22" s="8"/>
       <c r="X22" s="9"/>
       <c r="AJ22" s="64"/>
@@ -4046,7 +4042,7 @@
       <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="151"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="71"/>
@@ -4060,10 +4056,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="S23" s="140"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9"/>
       <c r="AJ23" s="64"/>
@@ -4078,7 +4074,7 @@
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="151"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="71"/>
@@ -4088,10 +4084,10 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
       <c r="W24" s="8"/>
       <c r="X24" s="9"/>
       <c r="AJ24" s="64"/>
@@ -4106,7 +4102,7 @@
       <c r="A25" s="21"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="152"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="71"/>
@@ -4116,10 +4112,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
       <c r="W25" s="8"/>
       <c r="X25" s="9"/>
       <c r="AJ25" s="64"/>
@@ -4144,10 +4140,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
       <c r="W26" s="8"/>
       <c r="X26" s="9"/>
       <c r="AJ26" s="64"/>
@@ -4172,10 +4168,10 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
       <c r="W27" s="8"/>
       <c r="X27" s="9"/>
       <c r="AJ27" s="64"/>
@@ -4200,64 +4196,64 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
       <c r="W28" s="8"/>
       <c r="X28" s="9"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="98"/>
-      <c r="AM28" s="98"/>
-      <c r="AN28" s="98"/>
-      <c r="AO28" s="98"/>
+      <c r="AJ28" s="133"/>
+      <c r="AK28" s="133"/>
+      <c r="AL28" s="133"/>
+      <c r="AM28" s="133"/>
+      <c r="AN28" s="133"/>
+      <c r="AO28" s="133"/>
       <c r="AQ28" s="21"/>
     </row>
     <row r="29" spans="1:55" ht="21" customHeight="1">
       <c r="A29" s="21"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="137"/>
+      <c r="D29" s="86"/>
       <c r="F29" s="74"/>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
       <c r="L29" s="52"/>
       <c r="M29" s="52"/>
-      <c r="S29" s="140"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
       <c r="W29" s="8"/>
       <c r="X29" s="9"/>
-      <c r="AJ29" s="98"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="98"/>
-      <c r="AM29" s="98"/>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="98"/>
+      <c r="AJ29" s="133"/>
+      <c r="AK29" s="133"/>
+      <c r="AL29" s="133"/>
+      <c r="AM29" s="133"/>
+      <c r="AN29" s="133"/>
+      <c r="AO29" s="133"/>
       <c r="AQ29" s="21"/>
     </row>
     <row r="30" spans="1:55" ht="21" customHeight="1">
       <c r="A30" s="21"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="137"/>
+      <c r="D30" s="86"/>
       <c r="G30" s="71"/>
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
       <c r="M30" s="75"/>
-      <c r="S30" s="140"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="141"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
       <c r="W30" s="8"/>
       <c r="X30" s="9"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="98"/>
-      <c r="AN30" s="98"/>
-      <c r="AO30" s="98"/>
+      <c r="AJ30" s="133"/>
+      <c r="AK30" s="133"/>
+      <c r="AL30" s="133"/>
+      <c r="AM30" s="133"/>
+      <c r="AN30" s="133"/>
+      <c r="AO30" s="133"/>
       <c r="AQ30" s="21"/>
       <c r="BA30" s="76"/>
       <c r="BB30" s="77"/>
@@ -4266,15 +4262,15 @@
     <row r="31" spans="1:55" ht="21" customHeight="1" thickBot="1">
       <c r="A31" s="21"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="137"/>
+      <c r="D31" s="86"/>
       <c r="G31" s="71"/>
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
       <c r="M31" s="75"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="143"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
       <c r="W31" s="8"/>
       <c r="X31" s="9"/>
       <c r="AK31" s="75"/>
@@ -4288,7 +4284,7 @@
     </row>
     <row r="32" spans="1:55" ht="21" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="D32" s="137"/>
+      <c r="D32" s="86"/>
       <c r="G32" s="71"/>
       <c r="H32" s="71"/>
       <c r="I32" s="71"/>
@@ -4310,7 +4306,7 @@
       <c r="A33" s="21"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="137"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="71"/>
@@ -4318,11 +4314,11 @@
       <c r="I33" s="71"/>
       <c r="J33" s="3"/>
       <c r="M33" s="75"/>
-      <c r="S33" s="153" t="s">
+      <c r="S33" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="T33" s="154"/>
-      <c r="U33" s="155"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="104"/>
       <c r="V33" s="78"/>
       <c r="W33" s="14"/>
       <c r="X33" s="15"/>
@@ -4338,7 +4334,7 @@
       <c r="A34" s="21"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="137"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="71"/>
@@ -4346,9 +4342,9 @@
       <c r="I34" s="71"/>
       <c r="J34" s="3"/>
       <c r="M34" s="75"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="149"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="98"/>
       <c r="V34" s="78" t="s">
         <v>25</v>
       </c>
@@ -4363,7 +4359,7 @@
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="137"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="71"/>
@@ -4392,7 +4388,7 @@
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="137"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="71"/>
@@ -4400,11 +4396,11 @@
       <c r="I36" s="71"/>
       <c r="J36" s="3"/>
       <c r="M36" s="75"/>
-      <c r="S36" s="153" t="s">
+      <c r="S36" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="T36" s="154"/>
-      <c r="U36" s="155"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="104"/>
       <c r="V36" s="78"/>
       <c r="W36" s="8"/>
       <c r="X36" s="9"/>
@@ -4429,11 +4425,11 @@
       <c r="I37" s="71"/>
       <c r="J37" s="3"/>
       <c r="M37" s="75"/>
-      <c r="S37" s="144" t="s">
+      <c r="S37" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="T37" s="145"/>
-      <c r="U37" s="146"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="95"/>
       <c r="V37" s="78"/>
       <c r="W37" s="8"/>
       <c r="X37" s="9"/>
@@ -4475,7 +4471,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="137"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="71"/>
@@ -4504,7 +4500,7 @@
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="137"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="71"/>
@@ -4542,7 +4538,7 @@
       <c r="A41" s="21"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="137"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="71"/>
@@ -4577,7 +4573,7 @@
       <c r="A42" s="21"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="137"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="71"/>
@@ -4612,7 +4608,7 @@
       <c r="A43" s="21"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="137"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="71"/>
@@ -4644,7 +4640,7 @@
       <c r="A44" s="21"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="137"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="71"/>
@@ -4676,7 +4672,7 @@
       <c r="A45" s="21"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="137"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="71"/>
@@ -4708,7 +4704,7 @@
       <c r="A46" s="21"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="137"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="71"/>
@@ -16562,16 +16558,32 @@
     <sortCondition ref="BA5"/>
   </sortState>
   <mergeCells count="52">
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="S16:V31"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="AJ28:AO30"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="AB8:AG10"/>
+    <mergeCell ref="AJ12:AO13"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="AL6:AN6"/>
     <mergeCell ref="AD6:AF6"/>
     <mergeCell ref="N6:P6"/>
@@ -16588,32 +16600,16 @@
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AB15:AG17"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="AJ28:AO30"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="AB8:AG10"/>
-    <mergeCell ref="AJ12:AO13"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="S16:V31"/>
+    <mergeCell ref="D29:D36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="S33:U33"/>
   </mergeCells>
   <conditionalFormatting sqref="AL9">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Hover here">
